--- a/Data Files/Excel files/arena_15.xlsx
+++ b/Data Files/Excel files/arena_15.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janine.bautista\git\JANINE_QA\Data Files\Backoffice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\JANINE_QA\Data Files\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA54269-F7CF-451E-B882-C910FF804FE4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,9 +105,6 @@
     <t>AZNAR TALISAY SPORTS COMPLEX</t>
   </si>
   <si>
-    <t>CAMALIG COCKPIT AND SPORT COMPLEX INC.</t>
-  </si>
-  <si>
     <t>MALVAR COCKPIT</t>
   </si>
   <si>
@@ -219,12 +217,15 @@
   </si>
   <si>
     <t>DRAGON COCKPIT - DRC</t>
+  </si>
+  <si>
+    <t>CAMALIG COCKPIT AND SPORT COMPLEX INC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,11 +539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,30 +581,30 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,13 +615,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,13 +632,13 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,13 +649,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,13 +666,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,13 +683,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,13 +700,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,13 +717,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,98 +734,98 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1">
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
